--- a/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D0D431-3FB8-4077-BF3C-3C2EF1103554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FDB4F47-5801-4EFC-A77D-C1F1E027139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{951D2BD2-22B7-4DED-AAA2-526B70FC0572}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9487FA5B-3AEA-4A81-A9E5-5198A7AB40AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1765 +77,1771 @@
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>91,07%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447DB371-CD13-40BD-9C47-5F2E156431C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E05CEE3-004A-41FF-AFBF-B9B4E471303A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2866,13 +2872,13 @@
         <v>43082</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2893,13 @@
         <v>348522</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -2902,13 +2908,13 @@
         <v>338523</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -2917,13 +2923,13 @@
         <v>687045</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2985,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2997,13 @@
         <v>13551</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -3006,13 +3012,13 @@
         <v>33492</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3021,13 +3027,13 @@
         <v>47043</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3048,13 @@
         <v>189757</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -3057,13 +3063,13 @@
         <v>174176</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -3072,13 +3078,13 @@
         <v>363933</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,7 +3140,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3146,13 +3152,13 @@
         <v>5875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3161,13 +3167,13 @@
         <v>19105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3176,13 +3182,13 @@
         <v>24979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3203,13 @@
         <v>264936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -3212,13 +3218,13 @@
         <v>259039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>511</v>
@@ -3227,13 +3233,13 @@
         <v>523976</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,7 +3295,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3301,13 +3307,13 @@
         <v>29787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -3316,13 +3322,13 @@
         <v>74864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -3331,13 +3337,13 @@
         <v>104651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3358,13 @@
         <v>585240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>545</v>
@@ -3367,13 +3373,13 @@
         <v>563355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1113</v>
@@ -3382,13 +3388,13 @@
         <v>1148595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3450,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3462,13 @@
         <v>62544</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -3471,13 +3477,13 @@
         <v>103013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -3486,13 +3492,13 @@
         <v>165558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3513,13 @@
         <v>681251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -3522,13 +3528,13 @@
         <v>680498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1323</v>
@@ -3537,13 +3543,13 @@
         <v>1361748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3617,13 @@
         <v>161025</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>367</v>
@@ -3626,13 +3632,13 @@
         <v>376807</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>530</v>
@@ -3641,13 +3647,13 @@
         <v>537832</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3668,13 @@
         <v>3115519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>2930</v>
@@ -3677,28 +3683,28 @@
         <v>3002391</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>5981</v>
       </c>
       <c r="N29" s="7">
-        <v>6117908</v>
+        <v>6117909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3746,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3754,7 +3760,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A315FC-25BA-44EB-99E2-F4732630C421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7277C399-489E-4F9C-999A-90B978DE035B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,7 +3801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,39 +3906,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,39 +3951,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,39 +3996,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4045,13 @@
         <v>28982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -4054,13 +4060,13 @@
         <v>88159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -4069,13 +4075,13 @@
         <v>117141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4096,13 @@
         <v>476545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>402</v>
@@ -4105,13 +4111,13 @@
         <v>435606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>853</v>
@@ -4120,13 +4126,13 @@
         <v>912151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4200,13 @@
         <v>27187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4209,13 +4215,13 @@
         <v>45024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4224,13 +4230,13 @@
         <v>72212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4251,13 @@
         <v>296859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -4260,13 +4266,13 @@
         <v>295996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>569</v>
@@ -4275,13 +4281,13 @@
         <v>592854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4355,13 @@
         <v>47783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -4364,13 +4370,13 @@
         <v>120707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -4379,13 +4385,13 @@
         <v>168489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4406,13 @@
         <v>620937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -4415,13 +4421,13 @@
         <v>555489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1093</v>
@@ -4430,13 +4436,13 @@
         <v>1176427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4498,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4504,13 +4510,13 @@
         <v>10987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4519,13 +4525,13 @@
         <v>57050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -4534,13 +4540,13 @@
         <v>68038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4561,13 @@
         <v>201631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4570,13 +4576,13 @@
         <v>162541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -4585,13 +4591,13 @@
         <v>364171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,7 +4653,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4659,13 +4665,13 @@
         <v>20193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4674,13 +4680,13 @@
         <v>43359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -4689,13 +4695,13 @@
         <v>63551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4716,13 @@
         <v>253788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4725,13 +4731,13 @@
         <v>236672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -4740,13 +4746,13 @@
         <v>490461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4808,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4814,13 +4820,13 @@
         <v>45878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4829,13 +4835,13 @@
         <v>81286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -4844,13 +4850,13 @@
         <v>127164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4871,13 @@
         <v>616910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>561</v>
@@ -4880,13 +4886,13 @@
         <v>612567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1137</v>
@@ -4895,13 +4901,13 @@
         <v>1229477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4963,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4969,13 +4975,13 @@
         <v>46671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -4984,13 +4990,13 @@
         <v>119240</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -4999,13 +5005,13 @@
         <v>165911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5026,13 @@
         <v>732427</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>648</v>
@@ -5035,13 +5041,13 @@
         <v>704613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1323</v>
@@ -5050,13 +5056,13 @@
         <v>1437040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5130,13 @@
         <v>227680</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>517</v>
@@ -5139,13 +5145,13 @@
         <v>554826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>719</v>
@@ -5154,13 +5160,13 @@
         <v>782506</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5181,13 @@
         <v>3199099</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>2781</v>
@@ -5190,13 +5196,13 @@
         <v>3003483</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="M29" s="7">
         <v>5788</v>
@@ -5205,13 +5211,13 @@
         <v>6202582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5273,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +5297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8C787D-AE5C-4319-8F4F-8AFA123F30E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D5729-ED23-4499-8F8F-C9F4E1098531}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5314,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5415,13 +5421,13 @@
         <v>22551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -5430,13 +5436,13 @@
         <v>51970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -5445,13 +5451,13 @@
         <v>74521</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5472,13 @@
         <v>271210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H5" s="7">
         <v>228</v>
@@ -5481,13 +5487,13 @@
         <v>236733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>473</v>
@@ -5496,13 +5502,13 @@
         <v>507943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5576,13 @@
         <v>29423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5585,13 +5591,13 @@
         <v>75007</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -5600,13 +5606,13 @@
         <v>104429</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5627,13 @@
         <v>473152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5636,13 +5642,13 @@
         <v>448077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>865</v>
@@ -5651,13 +5657,13 @@
         <v>921230</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5731,13 @@
         <v>11868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5740,13 +5746,13 @@
         <v>40690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5755,13 +5761,13 @@
         <v>52558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>306697</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -5791,13 +5797,13 @@
         <v>295619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>616</v>
@@ -5806,13 +5812,13 @@
         <v>602316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5886,13 @@
         <v>21738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5895,13 +5901,13 @@
         <v>62389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -5910,13 +5916,13 @@
         <v>84127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5937,13 @@
         <v>348226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -5946,13 +5952,13 @@
         <v>324894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -5961,13 +5967,13 @@
         <v>673120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,7 +6029,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6035,13 +6041,13 @@
         <v>20060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -6050,13 +6056,13 @@
         <v>36689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -6065,13 +6071,13 @@
         <v>56750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6092,13 @@
         <v>191161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -6101,13 +6107,13 @@
         <v>181898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>379</v>
@@ -6116,13 +6122,13 @@
         <v>373058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6184,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6190,13 +6196,13 @@
         <v>17697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -6205,13 +6211,13 @@
         <v>47211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6220,13 +6226,13 @@
         <v>64908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6247,13 @@
         <v>245426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>218</v>
@@ -6256,13 +6262,13 @@
         <v>225904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -6271,13 +6277,13 @@
         <v>471330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6339,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6345,13 +6351,13 @@
         <v>48157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -6360,13 +6366,13 @@
         <v>96466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -6375,13 +6381,13 @@
         <v>144622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6402,13 @@
         <v>608401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>562</v>
@@ -6411,13 +6417,13 @@
         <v>594828</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -6426,13 +6432,13 @@
         <v>1203230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6494,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6506,13 @@
         <v>41205</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6515,13 +6521,13 @@
         <v>127910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6530,13 +6536,13 @@
         <v>169115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6557,13 @@
         <v>737378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>647</v>
@@ -6566,13 +6572,13 @@
         <v>698257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>1355</v>
@@ -6581,13 +6587,13 @@
         <v>1435635</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6661,13 @@
         <v>212698</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>54</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>486</v>
@@ -6670,13 +6676,13 @@
         <v>538331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>692</v>
@@ -6685,13 +6691,13 @@
         <v>751029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6712,13 @@
         <v>3181652</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>2852</v>
@@ -6721,13 +6727,13 @@
         <v>3006211</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>5877</v>
@@ -6736,13 +6742,13 @@
         <v>6187863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6804,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +6828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AD1E51-9683-46D9-8F88-4DDD955CB5F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A848CA-FE80-45CA-ABB6-F3C7D380FCA8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6946,13 +6952,13 @@
         <v>18562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="H4" s="7">
         <v>74</v>
@@ -6961,13 +6967,13 @@
         <v>35170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>460</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -6976,13 +6982,13 @@
         <v>53731</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>38</v>
+        <v>462</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +7003,13 @@
         <v>241736</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="H5" s="7">
         <v>464</v>
@@ -7012,13 +7018,13 @@
         <v>236233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>468</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>769</v>
@@ -7027,13 +7033,13 @@
         <v>477969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7107,13 @@
         <v>43478</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>473</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>474</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H7" s="7">
         <v>136</v>
@@ -7116,13 +7122,13 @@
         <v>95200</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -7131,13 +7137,13 @@
         <v>138678</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>487</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7158,13 @@
         <v>475819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>481</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>483</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -7167,13 +7173,13 @@
         <v>459366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -7182,13 +7188,13 @@
         <v>935186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7262,13 @@
         <v>32584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -7271,13 +7277,13 @@
         <v>70081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -7286,13 +7292,13 @@
         <v>102665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7313,13 @@
         <v>289656</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H11" s="7">
         <v>423</v>
@@ -7322,13 +7328,13 @@
         <v>303203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M11" s="7">
         <v>740</v>
@@ -7337,13 +7343,13 @@
         <v>592859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>503</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7417,13 @@
         <v>28971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>505</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -7426,13 +7432,13 @@
         <v>54143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -7441,13 +7447,13 @@
         <v>83114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7468,13 @@
         <v>293269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>513</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -7477,13 +7483,13 @@
         <v>374413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="M14" s="7">
         <v>769</v>
@@ -7492,13 +7498,13 @@
         <v>667682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,7 +7560,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7566,13 +7572,13 @@
         <v>12765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -7581,13 +7587,13 @@
         <v>39779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -7596,13 +7602,13 @@
         <v>52544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7623,13 @@
         <v>183983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>532</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
@@ -7632,13 +7638,13 @@
         <v>219734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M17" s="7">
         <v>657</v>
@@ -7647,13 +7653,13 @@
         <v>403716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,7 +7715,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7721,13 +7727,13 @@
         <v>31742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -7736,13 +7742,13 @@
         <v>62450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -7751,13 +7757,13 @@
         <v>94192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7778,13 @@
         <v>245481</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
         <v>328</v>
@@ -7787,13 +7793,13 @@
         <v>213172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
@@ -7802,13 +7808,13 @@
         <v>458653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7864,7 +7870,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7876,13 +7882,13 @@
         <v>55553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -7891,13 +7897,13 @@
         <v>131657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -7906,13 +7912,13 @@
         <v>187211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7933,13 @@
         <v>572201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H23" s="7">
         <v>770</v>
@@ -7942,13 +7948,13 @@
         <v>672546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M23" s="7">
         <v>1310</v>
@@ -7957,13 +7963,13 @@
         <v>1244746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,7 +8025,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8031,13 +8037,13 @@
         <v>76757</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="H25" s="7">
         <v>241</v>
@@ -8046,13 +8052,13 @@
         <v>177932</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M25" s="7">
         <v>330</v>
@@ -8061,13 +8067,13 @@
         <v>254689</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,7 +8088,7 @@
         <v>782671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>577</v>
@@ -8216,13 +8222,13 @@
         <v>966825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8243,13 @@
         <v>3084817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H29" s="7">
         <v>4291</v>
@@ -8252,28 +8258,28 @@
         <v>3169167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M29" s="7">
         <v>7309</v>
       </c>
       <c r="N29" s="7">
-        <v>6253984</v>
+        <v>6253983</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>598</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,7 +8321,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8329,7 +8335,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FDB4F47-5801-4EFC-A77D-C1F1E027139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F881A0-9D4F-4368-9153-B1FD3C7F95D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9487FA5B-3AEA-4A81-A9E5-5198A7AB40AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E6AAE35-42A8-4948-BA17-9B88F7FE98A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1530 +77,1545 @@
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>8,1%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>16,11%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>83,89%</t>
   </si>
   <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
     <t>9,85%</t>
   </si>
   <si>
@@ -1622,9 +1637,6 @@
     <t>90,15%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
     <t>84,67%</t>
   </si>
   <si>
@@ -1658,9 +1670,6 @@
     <t>17,04%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
     <t>19,56%</t>
   </si>
   <si>
@@ -1685,9 +1694,6 @@
     <t>80,44%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
     <t>8,85%</t>
   </si>
   <si>
@@ -1700,18 +1706,12 @@
     <t>16,37%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
     <t>20,05%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
     <t>15,09%</t>
   </si>
   <si>
@@ -1730,18 +1730,12 @@
     <t>79,95%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
     <t>86,93%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
     <t>8,93%</t>
   </si>
   <si>
@@ -1766,9 +1760,6 @@
     <t>12,85%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
     <t>91,07%</t>
   </si>
   <si>
@@ -1790,9 +1781,6 @@
     <t>85,26%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
     <t>87,15%</t>
   </si>
   <si>
@@ -1814,9 +1802,6 @@
     <t>13,39%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
     <t>14,32%</t>
   </si>
   <si>
@@ -1839,9 +1824,6 @@
   </si>
   <si>
     <t>85,68%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E05CEE3-004A-41FF-AFBF-B9B4E471303A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C10485-01BF-4A36-AE11-F36977282749}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2842,13 +2824,13 @@
         <v>10149</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2857,13 +2839,13 @@
         <v>32933</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -2872,7 +2854,7 @@
         <v>43082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>76</v>
@@ -2893,13 +2875,13 @@
         <v>348522</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -2908,13 +2890,13 @@
         <v>338523</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -2923,7 +2905,7 @@
         <v>687045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>84</v>
@@ -3152,13 +3134,13 @@
         <v>5875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3167,13 +3149,13 @@
         <v>19105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3182,13 +3164,13 @@
         <v>24979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3185,13 @@
         <v>264936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -3218,13 +3200,13 @@
         <v>259039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>511</v>
@@ -3233,13 +3215,13 @@
         <v>523976</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3277,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3307,13 +3289,13 @@
         <v>29787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -3322,13 +3304,13 @@
         <v>74864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -3337,13 +3319,13 @@
         <v>104651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3340,13 @@
         <v>585240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>545</v>
@@ -3373,13 +3355,13 @@
         <v>563355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1113</v>
@@ -3388,13 +3370,13 @@
         <v>1148595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3432,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3462,13 +3444,13 @@
         <v>62544</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -3477,13 +3459,13 @@
         <v>103013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -3492,13 +3474,13 @@
         <v>165558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3495,13 @@
         <v>681251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -3528,13 +3510,13 @@
         <v>680498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1323</v>
@@ -3543,13 +3525,13 @@
         <v>1361748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3599,13 @@
         <v>161025</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>367</v>
@@ -3632,13 +3614,13 @@
         <v>376807</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>530</v>
@@ -3647,13 +3629,13 @@
         <v>537832</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,16 +3647,16 @@
         <v>3051</v>
       </c>
       <c r="D29" s="7">
-        <v>3115519</v>
+        <v>3115518</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>2930</v>
@@ -3683,13 +3665,13 @@
         <v>3002391</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>5981</v>
@@ -3698,13 +3680,13 @@
         <v>6117909</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3698,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3760,7 +3742,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7277C399-489E-4F9C-999A-90B978DE035B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65393746-08D0-4395-A2CF-7F4E10A8DEDD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,39 +3888,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,39 +3933,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,39 +3978,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4027,13 @@
         <v>28982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -4060,13 +4042,13 @@
         <v>88159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -4075,13 +4057,13 @@
         <v>117141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4078,13 @@
         <v>476545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>402</v>
@@ -4111,13 +4093,13 @@
         <v>435606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>853</v>
@@ -4126,13 +4108,13 @@
         <v>912151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4182,13 @@
         <v>27187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4215,13 +4197,13 @@
         <v>45024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4230,13 +4212,13 @@
         <v>72212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4233,13 @@
         <v>296859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -4266,13 +4248,13 @@
         <v>295996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>569</v>
@@ -4281,13 +4263,13 @@
         <v>592854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4337,13 @@
         <v>47783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -4370,13 +4352,13 @@
         <v>120707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -4385,13 +4367,13 @@
         <v>168489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4388,13 @@
         <v>620937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -4421,13 +4403,13 @@
         <v>555489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1093</v>
@@ -4436,13 +4418,13 @@
         <v>1176427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4492,13 @@
         <v>10987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4525,13 +4507,13 @@
         <v>57050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -4540,13 +4522,13 @@
         <v>68038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4543,13 @@
         <v>201631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4576,13 +4558,13 @@
         <v>162541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -4591,13 +4573,13 @@
         <v>364171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4647,13 @@
         <v>20193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4680,13 +4662,13 @@
         <v>43359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -4695,13 +4677,13 @@
         <v>63551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4698,13 @@
         <v>253788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4731,13 +4713,13 @@
         <v>236672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -4808,7 +4790,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4820,13 +4802,13 @@
         <v>45878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4835,13 +4817,13 @@
         <v>81286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -4850,13 +4832,13 @@
         <v>127164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4853,13 @@
         <v>616910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>561</v>
@@ -4886,13 +4868,13 @@
         <v>612567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1137</v>
@@ -4901,13 +4883,13 @@
         <v>1229477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,7 +4945,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4975,13 +4957,13 @@
         <v>46671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -4990,13 +4972,13 @@
         <v>119240</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -5005,13 +4987,13 @@
         <v>165911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5008,13 @@
         <v>732427</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>648</v>
@@ -5041,13 +5023,13 @@
         <v>704613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1323</v>
@@ -5056,13 +5038,13 @@
         <v>1437040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5112,13 @@
         <v>227680</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H28" s="7">
         <v>517</v>
@@ -5145,13 +5127,13 @@
         <v>554826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>719</v>
@@ -5160,13 +5142,13 @@
         <v>782506</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5163,13 @@
         <v>3199099</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7">
         <v>2781</v>
@@ -5202,7 +5184,7 @@
         <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="M29" s="7">
         <v>5788</v>
@@ -5273,7 +5255,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5297,7 +5279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77D5729-ED23-4499-8F8F-C9F4E1098531}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0826A5C-DFD6-4D40-A6CF-F826951AB14E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,13 +5573,13 @@
         <v>75007</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -5606,13 +5588,13 @@
         <v>104429</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5609,13 @@
         <v>473152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5642,13 +5624,13 @@
         <v>448077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>865</v>
@@ -5657,13 +5639,13 @@
         <v>921230</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5713,13 @@
         <v>11868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5746,13 +5728,13 @@
         <v>40690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5761,13 +5743,13 @@
         <v>52558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5764,13 @@
         <v>306697</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -5797,13 +5779,13 @@
         <v>295619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M11" s="7">
         <v>616</v>
@@ -5812,10 +5794,10 @@
         <v>602316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>363</v>
@@ -5901,13 +5883,13 @@
         <v>62389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -5916,13 +5898,13 @@
         <v>84127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5919,13 @@
         <v>348226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -5952,13 +5934,13 @@
         <v>324894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -5967,13 +5949,13 @@
         <v>673120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6023,13 @@
         <v>20060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -6056,13 +6038,13 @@
         <v>36689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -6071,13 +6053,13 @@
         <v>56750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6074,13 @@
         <v>191161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -6107,13 +6089,13 @@
         <v>181898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>379</v>
@@ -6122,13 +6104,13 @@
         <v>373058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6178,13 @@
         <v>17697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>127</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -6211,13 +6193,13 @@
         <v>47211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6226,13 +6208,13 @@
         <v>64908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6229,13 @@
         <v>245426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
         <v>218</v>
@@ -6262,13 +6244,13 @@
         <v>225904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -6277,13 +6259,13 @@
         <v>471330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6321,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6333,13 @@
         <v>48157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -6366,13 +6348,13 @@
         <v>96466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -6381,13 +6363,13 @@
         <v>144622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6384,13 @@
         <v>608401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>562</v>
@@ -6417,13 +6399,13 @@
         <v>594828</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -6432,10 +6414,10 @@
         <v>1203230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>421</v>
@@ -6494,7 +6476,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6521,7 +6503,7 @@
         <v>127910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>425</v>
@@ -6536,13 +6518,13 @@
         <v>169115</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6539,13 @@
         <v>737378</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>647</v>
@@ -6572,13 +6554,13 @@
         <v>698257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>1355</v>
@@ -6587,13 +6569,13 @@
         <v>1435635</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6643,13 @@
         <v>212698</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H28" s="7">
         <v>486</v>
@@ -6676,13 +6658,13 @@
         <v>538331</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>692</v>
@@ -6691,13 +6673,13 @@
         <v>751029</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6694,13 @@
         <v>3181652</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H29" s="7">
         <v>2852</v>
@@ -6804,7 +6786,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6828,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A848CA-FE80-45CA-ABB6-F3C7D380FCA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C437F5-7BAE-4AB5-B8FE-BB003FB4FFFD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7143,7 +7125,7 @@
         <v>480</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7140,13 @@
         <v>475819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -7173,13 +7155,13 @@
         <v>459366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -7188,13 +7170,13 @@
         <v>935186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>489</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,10 +7247,10 @@
         <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -7277,13 +7259,13 @@
         <v>70081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -7292,13 +7274,13 @@
         <v>102665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,10 +7298,10 @@
         <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H11" s="7">
         <v>423</v>
@@ -7328,13 +7310,13 @@
         <v>303203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M11" s="7">
         <v>740</v>
@@ -7343,13 +7325,13 @@
         <v>592859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7399,13 @@
         <v>28971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>507</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -7432,13 +7414,13 @@
         <v>54143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -7447,13 +7429,13 @@
         <v>83114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>514</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7450,13 @@
         <v>293269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>516</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -7483,13 +7465,13 @@
         <v>374413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>769</v>
@@ -7498,13 +7480,13 @@
         <v>667682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7572,13 +7554,13 @@
         <v>12765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>519</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -7587,13 +7569,13 @@
         <v>39779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -7602,13 +7584,13 @@
         <v>52544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7605,13 @@
         <v>183983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>172</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
@@ -7638,13 +7620,13 @@
         <v>219734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>657</v>
@@ -7653,13 +7635,13 @@
         <v>403716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,10 +7712,10 @@
         <v>93</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -7742,13 +7724,13 @@
         <v>62450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -7757,13 +7739,13 @@
         <v>94192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>539</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,10 +7763,10 @@
         <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H20" s="7">
         <v>328</v>
@@ -7793,13 +7775,13 @@
         <v>213172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
@@ -7808,13 +7790,13 @@
         <v>458653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,7 +7852,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7882,13 +7864,13 @@
         <v>55553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -7897,13 +7879,13 @@
         <v>131657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>553</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -7912,10 +7894,10 @@
         <v>187211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>557</v>
@@ -7954,7 +7936,7 @@
         <v>562</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>563</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>1310</v>
@@ -7963,13 +7945,13 @@
         <v>1244746</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>566</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,7 +8007,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8037,13 +8019,13 @@
         <v>76757</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>241</v>
@@ -8052,13 +8034,13 @@
         <v>177932</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>330</v>
@@ -8067,13 +8049,13 @@
         <v>254689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8070,13 @@
         <v>782671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>821</v>
@@ -8103,13 +8085,13 @@
         <v>690502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M26" s="7">
         <v>1494</v>
@@ -8118,13 +8100,13 @@
         <v>1473173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>583</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8174,13 @@
         <v>300411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H28" s="7">
         <v>1076</v>
@@ -8207,13 +8189,13 @@
         <v>666414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="M28" s="7">
         <v>1434</v>
@@ -8222,13 +8204,13 @@
         <v>966825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>591</v>
+        <v>339</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8225,13 @@
         <v>3084817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H29" s="7">
         <v>4291</v>
@@ -8258,13 +8240,13 @@
         <v>3169167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M29" s="7">
         <v>7309</v>
@@ -8273,13 +8255,13 @@
         <v>6253983</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,7 +8317,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14F881A0-9D4F-4368-9153-B1FD3C7F95D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA66581-DFA5-48D1-8F69-3DF3EB4B6BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E6AAE35-42A8-4948-BA17-9B88F7FE98A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6326BD25-B692-4914-A723-BBA56EC5420F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>88,22%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>12,78%</t>
@@ -152,31 +152,31 @@
     <t>10,01%</t>
   </si>
   <si>
-    <t>16,23%</t>
+    <t>15,76%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>83,77%</t>
+    <t>84,24%</t>
   </si>
   <si>
     <t>89,99%</t>
@@ -185,10 +185,10 @@
     <t>91,75%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,106 +197,112 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>94,1%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -305,55 +311,55 @@
     <t>6,67%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>83,87%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -362,55 +368,55 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>97,83%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -419,1411 +425,1417 @@
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,35%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
     <t>90,35%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>95,97%</t>
   </si>
   <si>
     <t>84,67%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>14,82%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>80,44%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>20,05%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>15,09%</t>
+    <t>9,53%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>79,95%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>86,93%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>79,51%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C10485-01BF-4A36-AE11-F36977282749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABB55DB-179A-4137-B626-3AFFAF9763FC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,13 +2836,13 @@
         <v>10149</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -2839,13 +2851,13 @@
         <v>32933</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -2854,13 +2866,13 @@
         <v>43082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2887,13 @@
         <v>348522</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -2890,13 +2902,13 @@
         <v>338523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -2905,13 +2917,13 @@
         <v>687045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,7 +2979,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2979,13 +2991,13 @@
         <v>13551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -2994,13 +3006,13 @@
         <v>33492</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3009,13 +3021,13 @@
         <v>47043</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3042,13 @@
         <v>189757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -3045,13 +3057,13 @@
         <v>174176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>357</v>
@@ -3060,13 +3072,13 @@
         <v>363933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3134,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3134,13 +3146,13 @@
         <v>5875</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3149,13 +3161,13 @@
         <v>19105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -3164,13 +3176,13 @@
         <v>24979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>264936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -3200,13 +3212,13 @@
         <v>259039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>511</v>
@@ -3215,13 +3227,13 @@
         <v>523976</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3289,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3301,13 @@
         <v>29787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -3304,13 +3316,13 @@
         <v>74864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -3319,13 +3331,13 @@
         <v>104651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>585240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>545</v>
@@ -3355,13 +3367,13 @@
         <v>563355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1113</v>
@@ -3370,13 +3382,13 @@
         <v>1148595</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3444,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3456,13 @@
         <v>62544</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -3459,13 +3471,13 @@
         <v>103013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>158</v>
@@ -3474,13 +3486,13 @@
         <v>165558</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3507,13 @@
         <v>681251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>650</v>
@@ -3510,13 +3522,13 @@
         <v>680498</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>1323</v>
@@ -3525,7 +3537,7 @@
         <v>1361748</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>160</v>
@@ -3632,10 +3644,10 @@
         <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,16 +3659,16 @@
         <v>3051</v>
       </c>
       <c r="D29" s="7">
-        <v>3115518</v>
+        <v>3115519</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2930</v>
@@ -3665,28 +3677,28 @@
         <v>3002391</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5981</v>
       </c>
       <c r="N29" s="7">
-        <v>6117909</v>
+        <v>6117908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3710,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3728,7 +3740,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3742,7 +3754,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65393746-08D0-4395-A2CF-7F4E10A8DEDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84117F54-426C-4E8D-AFE9-3338A55FFB0A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,39 +3900,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,39 +3945,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,39 +3990,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4039,13 @@
         <v>28982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -4042,13 +4054,13 @@
         <v>88159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -4057,13 +4069,13 @@
         <v>117141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4090,13 @@
         <v>476545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>402</v>
@@ -4093,13 +4105,13 @@
         <v>435606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>853</v>
@@ -4108,13 +4120,13 @@
         <v>912151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4194,13 @@
         <v>27187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4197,13 +4209,13 @@
         <v>45024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4212,13 +4224,13 @@
         <v>72212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4245,13 @@
         <v>296859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -4248,13 +4260,13 @@
         <v>295996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>569</v>
@@ -4263,13 +4275,13 @@
         <v>592854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4349,13 @@
         <v>47783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -4352,13 +4364,13 @@
         <v>120707</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>160</v>
@@ -4367,13 +4379,13 @@
         <v>168489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4400,13 @@
         <v>620937</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -4403,13 +4415,13 @@
         <v>555489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>1093</v>
@@ -4418,13 +4430,13 @@
         <v>1176427</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,7 +4492,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4492,13 +4504,13 @@
         <v>10987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4507,13 +4519,13 @@
         <v>57050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -4522,13 +4534,13 @@
         <v>68038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4555,13 @@
         <v>201631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4558,13 +4570,13 @@
         <v>162541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -4573,13 +4585,13 @@
         <v>364171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,7 +4647,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4647,13 +4659,13 @@
         <v>20193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4662,13 +4674,13 @@
         <v>43359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -4677,13 +4689,13 @@
         <v>63551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4710,13 @@
         <v>253788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4713,13 +4725,13 @@
         <v>236672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -4728,13 +4740,13 @@
         <v>490461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4802,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4802,13 +4814,13 @@
         <v>45878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4817,13 +4829,13 @@
         <v>81286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -4832,13 +4844,13 @@
         <v>127164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4865,13 @@
         <v>616910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>561</v>
@@ -4868,13 +4880,13 @@
         <v>612567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>1137</v>
@@ -4883,13 +4895,13 @@
         <v>1229477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4957,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4957,13 +4969,13 @@
         <v>46671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -4972,13 +4984,13 @@
         <v>119240</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -4987,13 +4999,13 @@
         <v>165911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5020,13 @@
         <v>732427</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
         <v>648</v>
@@ -5023,13 +5035,13 @@
         <v>704613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>1323</v>
@@ -5038,13 +5050,13 @@
         <v>1437040</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5124,13 @@
         <v>227680</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>517</v>
@@ -5127,13 +5139,13 @@
         <v>554826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>719</v>
@@ -5142,13 +5154,13 @@
         <v>782506</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5175,13 @@
         <v>3199099</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>311</v>
       </c>
       <c r="H29" s="7">
         <v>2781</v>
@@ -5178,13 +5190,13 @@
         <v>3003483</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>5788</v>
@@ -5193,13 +5205,13 @@
         <v>6202582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5267,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0826A5C-DFD6-4D40-A6CF-F826951AB14E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B5BE-1CB6-4081-B6DF-BC362AEA2A87}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5403,13 +5415,13 @@
         <v>22551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -5418,13 +5430,13 @@
         <v>51970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -5433,13 +5445,13 @@
         <v>74521</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5466,13 @@
         <v>271210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>228</v>
@@ -5469,13 +5481,13 @@
         <v>236733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>473</v>
@@ -5484,13 +5496,13 @@
         <v>507943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5570,13 @@
         <v>29423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5573,13 +5585,13 @@
         <v>75007</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -5588,13 +5600,13 @@
         <v>104429</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5621,13 @@
         <v>473152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5624,13 +5636,13 @@
         <v>448077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>865</v>
@@ -5639,13 +5651,13 @@
         <v>921230</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5725,13 @@
         <v>11868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5728,13 +5740,13 @@
         <v>40690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5743,13 +5755,13 @@
         <v>52558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5776,13 @@
         <v>306697</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -5779,13 +5791,13 @@
         <v>295619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>616</v>
@@ -5794,13 +5806,13 @@
         <v>602316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5880,13 @@
         <v>21738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5883,13 +5895,13 @@
         <v>62389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -5898,13 +5910,13 @@
         <v>84127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5931,13 @@
         <v>348226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -5934,13 +5946,13 @@
         <v>324894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -5949,13 +5961,13 @@
         <v>673120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,7 +6023,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6023,13 +6035,13 @@
         <v>20060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -6038,13 +6050,13 @@
         <v>36689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -6053,13 +6065,13 @@
         <v>56750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6086,13 @@
         <v>191161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -6089,13 +6101,13 @@
         <v>181898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>379</v>
@@ -6104,13 +6116,13 @@
         <v>373058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,7 +6178,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6178,13 +6190,13 @@
         <v>17697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -6193,13 +6205,13 @@
         <v>47211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6208,13 +6220,13 @@
         <v>64908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6241,13 @@
         <v>245426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>218</v>
@@ -6244,13 +6256,13 @@
         <v>225904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -6259,13 +6271,13 @@
         <v>471330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,7 +6333,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6333,13 +6345,13 @@
         <v>48157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -6348,13 +6360,13 @@
         <v>96466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -6363,13 +6375,13 @@
         <v>144622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6396,13 @@
         <v>608401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>562</v>
@@ -6399,13 +6411,13 @@
         <v>594828</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -6414,13 +6426,13 @@
         <v>1203230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6488,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6488,13 +6500,13 @@
         <v>41205</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6503,13 +6515,13 @@
         <v>127910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6518,13 +6530,13 @@
         <v>169115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6551,13 @@
         <v>737378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>647</v>
@@ -6554,13 +6566,13 @@
         <v>698257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1355</v>
@@ -6569,13 +6581,13 @@
         <v>1435635</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>312</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6655,13 @@
         <v>212698</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>486</v>
@@ -6658,13 +6670,13 @@
         <v>538331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>692</v>
@@ -6673,13 +6685,13 @@
         <v>751029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6706,13 @@
         <v>3181652</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>2852</v>
@@ -6709,13 +6721,13 @@
         <v>3006211</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="M29" s="7">
         <v>5877</v>
@@ -6724,13 +6736,13 @@
         <v>6187863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,7 +6798,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C437F5-7BAE-4AB5-B8FE-BB003FB4FFFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AF5E24-9B1F-479F-941F-8B9E883D55AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6827,7 +6839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6934,13 +6946,13 @@
         <v>18562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>74</v>
@@ -6949,13 +6961,13 @@
         <v>35170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>460</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -6964,13 +6976,13 @@
         <v>53731</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>462</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +6997,13 @@
         <v>241736</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>464</v>
@@ -7000,13 +7012,13 @@
         <v>236233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>468</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>769</v>
@@ -7015,13 +7027,13 @@
         <v>477969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7101,13 @@
         <v>43478</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H7" s="7">
         <v>136</v>
@@ -7104,13 +7116,13 @@
         <v>95200</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -7119,13 +7131,13 @@
         <v>138678</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7152,13 @@
         <v>475819</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>484</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
@@ -7155,13 +7167,13 @@
         <v>459366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -7170,13 +7182,13 @@
         <v>935186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7256,13 @@
         <v>32584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -7259,13 +7271,13 @@
         <v>70081</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
@@ -7274,13 +7286,13 @@
         <v>102665</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>498</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7307,13 @@
         <v>289656</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>423</v>
@@ -7310,13 +7322,13 @@
         <v>303203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M11" s="7">
         <v>740</v>
@@ -7325,13 +7337,13 @@
         <v>592859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>505</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7411,13 @@
         <v>28971</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>508</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -7414,13 +7426,13 @@
         <v>54143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -7429,13 +7441,13 @@
         <v>83114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7462,13 @@
         <v>293269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -7542,7 +7554,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7554,13 +7566,13 @@
         <v>12765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -7569,13 +7581,13 @@
         <v>39779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -7584,13 +7596,13 @@
         <v>52544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>530</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7617,13 @@
         <v>183983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>532</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>172</v>
+        <v>534</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
@@ -7620,13 +7632,13 @@
         <v>219734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M17" s="7">
         <v>657</v>
@@ -7635,13 +7647,13 @@
         <v>403716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,7 +7709,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7709,13 +7721,13 @@
         <v>31742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>537</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -7724,13 +7736,13 @@
         <v>62450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -7739,13 +7751,13 @@
         <v>94192</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>544</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7772,13 @@
         <v>245481</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>328</v>
@@ -7775,13 +7787,13 @@
         <v>213172</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
@@ -7790,13 +7802,13 @@
         <v>458653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,7 +7864,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7864,13 +7876,13 @@
         <v>55553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
@@ -7879,13 +7891,13 @@
         <v>131657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
@@ -7894,13 +7906,13 @@
         <v>187211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>557</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,13 +7927,13 @@
         <v>572201</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H23" s="7">
         <v>770</v>
@@ -7930,13 +7942,13 @@
         <v>672546</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>566</v>
       </c>
       <c r="M23" s="7">
         <v>1310</v>
@@ -7945,13 +7957,13 @@
         <v>1244746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,7 +8019,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8019,13 +8031,13 @@
         <v>76757</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>565</v>
+        <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H25" s="7">
         <v>241</v>
@@ -8034,13 +8046,13 @@
         <v>177932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M25" s="7">
         <v>330</v>
@@ -8049,13 +8061,13 @@
         <v>254689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>16</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8082,13 @@
         <v>782671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>573</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H26" s="7">
         <v>821</v>
@@ -8085,13 +8097,13 @@
         <v>690502</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>1494</v>
@@ -8100,13 +8112,13 @@
         <v>1473173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>25</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,13 +8186,13 @@
         <v>300411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H28" s="7">
         <v>1076</v>
@@ -8189,13 +8201,13 @@
         <v>666414</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M28" s="7">
         <v>1434</v>
@@ -8204,13 +8216,13 @@
         <v>966825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>339</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8237,13 @@
         <v>3084817</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
         <v>4291</v>
@@ -8240,28 +8252,28 @@
         <v>3169167</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
         <v>7309</v>
       </c>
       <c r="N29" s="7">
-        <v>6253983</v>
+        <v>6253984</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>593</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>347</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,7 +8315,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8317,7 +8329,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA66581-DFA5-48D1-8F69-3DF3EB4B6BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D6E944-6BD7-43E7-B52D-FB6603D60B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6326BD25-B692-4914-A723-BBA56EC5420F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EB0A6EA1-1D66-48D8-994B-453917F66319}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="616">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -587,7 +587,52 @@
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>5,73%</t>
@@ -698,58 +743,58 @@
     <t>91,32%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>5,17%</t>
@@ -812,9 +857,6 @@
     <t>4,63%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
     <t>15,48%</t>
   </si>
   <si>
@@ -836,9 +878,6 @@
     <t>92,63%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
     <t>95,37%</t>
   </si>
   <si>
@@ -1310,9 +1349,6 @@
     <t>11,56%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
     <t>10,73%</t>
   </si>
   <si>
@@ -1331,9 +1367,6 @@
     <t>86,05%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
     <t>88,44%</t>
   </si>
   <si>
@@ -1442,400 +1475,418 @@
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
   </si>
   <si>
     <t>86,66%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>89,28%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABB55DB-179A-4137-B626-3AFFAF9763FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C7FDE1-09E5-4B6A-A3D1-E65491B6243A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3659,7 +3710,7 @@
         <v>3051</v>
       </c>
       <c r="D29" s="7">
-        <v>3115519</v>
+        <v>3115518</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -3674,7 +3725,7 @@
         <v>2930</v>
       </c>
       <c r="I29" s="7">
-        <v>3002391</v>
+        <v>3002390</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3689,7 +3740,7 @@
         <v>5981</v>
       </c>
       <c r="N29" s="7">
-        <v>6117908</v>
+        <v>6117909</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -3710,7 +3761,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3725,7 +3776,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3740,7 +3791,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84117F54-426C-4E8D-AFE9-3338A55FFB0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E967AB0E-E453-43E8-A65B-30EB26B09C70}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3896,43 +3947,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28764</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="I4" s="7">
+        <v>54300</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="N4" s="7">
+        <v>83064</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,43 +3998,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="D5" s="7">
+        <v>265974</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>206</v>
+      </c>
+      <c r="I5" s="7">
+        <v>232945</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>461</v>
+      </c>
+      <c r="N5" s="7">
+        <v>498919</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,43 +4049,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4108,13 @@
         <v>28982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -4054,13 +4123,13 @@
         <v>88159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -4069,13 +4138,13 @@
         <v>117141</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4159,13 @@
         <v>476545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>402</v>
@@ -4105,13 +4174,13 @@
         <v>435606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>853</v>
@@ -4120,13 +4189,13 @@
         <v>912151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4263,13 @@
         <v>27187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -4209,13 +4278,13 @@
         <v>45024</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4224,13 +4293,13 @@
         <v>72212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4314,13 @@
         <v>296859</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>274</v>
@@ -4260,13 +4329,13 @@
         <v>295996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>569</v>
@@ -4275,13 +4344,13 @@
         <v>592854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,49 +4412,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>47783</v>
+        <v>19019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>120707</v>
+        <v>66407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>168489</v>
+        <v>85426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,49 +4463,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>582</v>
+        <v>327</v>
       </c>
       <c r="D14" s="7">
-        <v>620937</v>
+        <v>354963</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>511</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>555489</v>
+        <v>322544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>1093</v>
+        <v>632</v>
       </c>
       <c r="N14" s="7">
-        <v>1176427</v>
+        <v>677507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,10 +4514,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4460,10 +4529,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4475,10 +4544,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4504,13 +4573,13 @@
         <v>10987</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4519,13 +4588,13 @@
         <v>57050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -4534,13 +4603,13 @@
         <v>68038</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4624,13 @@
         <v>201631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4570,13 +4639,13 @@
         <v>162541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>343</v>
@@ -4585,13 +4654,13 @@
         <v>364171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4728,13 @@
         <v>20193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -4674,13 +4743,13 @@
         <v>43359</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -4689,13 +4758,13 @@
         <v>63551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4779,13 @@
         <v>253788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -4725,13 +4794,13 @@
         <v>236672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>470</v>
@@ -4740,13 +4809,13 @@
         <v>490461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4883,13 @@
         <v>45878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -4829,13 +4898,13 @@
         <v>81286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -4844,13 +4913,13 @@
         <v>127164</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4934,13 @@
         <v>616910</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>561</v>
@@ -4880,13 +4949,13 @@
         <v>612567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="M23" s="7">
         <v>1137</v>
@@ -4895,13 +4964,13 @@
         <v>1229477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5038,13 @@
         <v>46671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -4984,13 +5053,13 @@
         <v>119240</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>151</v>
@@ -5002,10 +5071,10 @@
         <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,10 +5089,10 @@
         <v>732427</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>87</v>
@@ -5035,13 +5104,13 @@
         <v>704613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>1323</v>
@@ -5053,10 +5122,10 @@
         <v>121</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,10 +5196,10 @@
         <v>129</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="H28" s="7">
         <v>517</v>
@@ -5139,13 +5208,13 @@
         <v>554826</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>719</v>
@@ -5154,13 +5223,13 @@
         <v>782506</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,10 +5247,10 @@
         <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>2781</v>
@@ -5190,13 +5259,13 @@
         <v>3003483</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M29" s="7">
         <v>5788</v>
@@ -5205,13 +5274,13 @@
         <v>6202582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B5B5BE-1CB6-4081-B6DF-BC362AEA2A87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0BD79A-7C92-4979-AE8C-044D51EB3B5E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5415,13 +5484,13 @@
         <v>22551</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -5430,13 +5499,13 @@
         <v>51970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -5445,13 +5514,13 @@
         <v>74521</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5535,13 @@
         <v>271210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>228</v>
@@ -5481,13 +5550,13 @@
         <v>236733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>473</v>
@@ -5496,13 +5565,13 @@
         <v>507943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5639,13 @@
         <v>29423</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
@@ -5585,13 +5654,13 @@
         <v>75007</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -5600,13 +5669,13 @@
         <v>104429</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5690,13 @@
         <v>473152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -5636,13 +5705,13 @@
         <v>448077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>865</v>
@@ -5651,13 +5720,13 @@
         <v>921230</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5794,13 @@
         <v>11868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5740,13 +5809,13 @@
         <v>40690</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -5755,13 +5824,13 @@
         <v>52558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5845,13 @@
         <v>306697</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>292</v>
@@ -5791,13 +5860,13 @@
         <v>295619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>616</v>
@@ -5806,13 +5875,13 @@
         <v>602316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5949,13 @@
         <v>21738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5895,13 +5964,13 @@
         <v>62389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -5910,13 +5979,13 @@
         <v>84127</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +6000,13 @@
         <v>348226</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -5946,13 +6015,13 @@
         <v>324894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -5961,13 +6030,13 @@
         <v>673120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6104,13 @@
         <v>20060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -6050,13 +6119,13 @@
         <v>36689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -6065,13 +6134,13 @@
         <v>56750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6155,13 @@
         <v>191161</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -6101,13 +6170,13 @@
         <v>181898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>379</v>
@@ -6116,13 +6185,13 @@
         <v>373058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6259,13 @@
         <v>17697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -6205,13 +6274,13 @@
         <v>47211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -6220,13 +6289,13 @@
         <v>64908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6310,13 @@
         <v>245426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>218</v>
@@ -6256,13 +6325,13 @@
         <v>225904</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>459</v>
@@ -6271,10 +6340,10 @@
         <v>471330</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>161</v>
@@ -6345,13 +6414,13 @@
         <v>48157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -6360,13 +6429,13 @@
         <v>96466</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>129</v>
@@ -6375,10 +6444,10 @@
         <v>144622</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>153</v>
@@ -6396,13 +6465,13 @@
         <v>608401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>562</v>
@@ -6411,13 +6480,13 @@
         <v>594828</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>246</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>1097</v>
@@ -6426,13 +6495,13 @@
         <v>1203230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6569,13 @@
         <v>41205</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>108</v>
@@ -6515,13 +6584,13 @@
         <v>127910</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>150</v>
@@ -6530,13 +6599,13 @@
         <v>169115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6620,13 @@
         <v>737378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>647</v>
@@ -6566,13 +6635,13 @@
         <v>698257</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>1355</v>
@@ -6581,13 +6650,13 @@
         <v>1435635</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6724,13 @@
         <v>212698</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="H28" s="7">
         <v>486</v>
@@ -6670,13 +6739,13 @@
         <v>538331</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
         <v>692</v>
@@ -6685,13 +6754,13 @@
         <v>751029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6775,13 @@
         <v>3181652</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>2852</v>
@@ -6721,13 +6790,13 @@
         <v>3006211</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>5877</v>
@@ -6736,10 +6805,10 @@
         <v>6187863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>143</v>
@@ -6822,7 +6891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AF5E24-9B1F-479F-941F-8B9E883D55AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A91DEF2-985C-4DA7-92E3-C4AE6676D2EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6943,46 +7012,46 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>18562</v>
+        <v>20664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>129</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>74</v>
       </c>
       <c r="I4" s="7">
-        <v>35170</v>
+        <v>36320</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
       </c>
       <c r="N4" s="7">
-        <v>53731</v>
+        <v>56984</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>38</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,46 +7063,46 @@
         <v>305</v>
       </c>
       <c r="D5" s="7">
-        <v>241736</v>
+        <v>290779</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>464</v>
       </c>
       <c r="I5" s="7">
-        <v>236233</v>
+        <v>253315</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>769</v>
       </c>
       <c r="N5" s="7">
-        <v>477969</v>
+        <v>544093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,7 +7114,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7060,7 +7129,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7075,7 +7144,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7098,46 +7167,46 @@
         <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>43478</v>
+        <v>41872</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>136</v>
       </c>
       <c r="I7" s="7">
-        <v>95200</v>
+        <v>87965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
       </c>
       <c r="N7" s="7">
-        <v>138678</v>
+        <v>129838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,46 +7218,46 @@
         <v>346</v>
       </c>
       <c r="D8" s="7">
-        <v>475819</v>
+        <v>476518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>61</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>581</v>
       </c>
       <c r="I8" s="7">
-        <v>459366</v>
+        <v>427004</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
       </c>
       <c r="N8" s="7">
-        <v>935186</v>
+        <v>903521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>398</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,7 +7269,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7215,7 +7284,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7230,7 +7299,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7253,46 +7322,46 @@
         <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>32584</v>
+        <v>31256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
       </c>
       <c r="I10" s="7">
-        <v>70081</v>
+        <v>64931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>156</v>
       </c>
       <c r="N10" s="7">
-        <v>102665</v>
+        <v>96187</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,46 +7373,46 @@
         <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>289656</v>
+        <v>284794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H11" s="7">
         <v>423</v>
       </c>
       <c r="I11" s="7">
-        <v>303203</v>
+        <v>284197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M11" s="7">
         <v>740</v>
       </c>
       <c r="N11" s="7">
-        <v>592859</v>
+        <v>568991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>518</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,7 +7424,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7370,7 +7439,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7385,7 +7454,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7408,46 +7477,46 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>28971</v>
+        <v>27541</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>54143</v>
+        <v>50013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
       </c>
       <c r="N13" s="7">
-        <v>83114</v>
+        <v>77554</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,46 +7528,46 @@
         <v>264</v>
       </c>
       <c r="D14" s="7">
-        <v>293269</v>
+        <v>285016</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
       </c>
       <c r="I14" s="7">
-        <v>374413</v>
+        <v>425705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>769</v>
       </c>
       <c r="N14" s="7">
-        <v>667682</v>
+        <v>710720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +7579,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7525,7 +7594,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7540,7 +7609,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7563,46 +7632,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>12765</v>
+        <v>11585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>39779</v>
+        <v>36150</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
       </c>
       <c r="N16" s="7">
-        <v>52544</v>
+        <v>47735</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>539</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,46 +7683,46 @@
         <v>258</v>
       </c>
       <c r="D17" s="7">
-        <v>183983</v>
+        <v>167157</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>532</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="H17" s="7">
         <v>399</v>
       </c>
       <c r="I17" s="7">
-        <v>219734</v>
+        <v>222629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>657</v>
       </c>
       <c r="N17" s="7">
-        <v>403716</v>
+        <v>389786</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>332</v>
+        <v>546</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,7 +7734,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7680,7 +7749,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7695,7 +7764,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7718,46 +7787,46 @@
         <v>56</v>
       </c>
       <c r="D19" s="7">
-        <v>31742</v>
+        <v>30397</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>548</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
       </c>
       <c r="I19" s="7">
-        <v>62450</v>
+        <v>58116</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
       </c>
       <c r="N19" s="7">
-        <v>94192</v>
+        <v>88514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,46 +7838,46 @@
         <v>315</v>
       </c>
       <c r="D20" s="7">
-        <v>245481</v>
+        <v>239239</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="H20" s="7">
         <v>328</v>
       </c>
       <c r="I20" s="7">
-        <v>213172</v>
+        <v>198940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="M20" s="7">
         <v>643</v>
       </c>
       <c r="N20" s="7">
-        <v>458653</v>
+        <v>438178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7889,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7835,7 +7904,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7850,7 +7919,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7873,46 +7942,46 @@
         <v>59</v>
       </c>
       <c r="D22" s="7">
-        <v>55553</v>
+        <v>53744</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="H22" s="7">
         <v>190</v>
       </c>
       <c r="I22" s="7">
-        <v>131657</v>
+        <v>120446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>249</v>
       </c>
       <c r="N22" s="7">
-        <v>187211</v>
+        <v>174190</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,46 +7993,46 @@
         <v>540</v>
       </c>
       <c r="D23" s="7">
-        <v>572201</v>
+        <v>570535</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H23" s="7">
         <v>770</v>
       </c>
       <c r="I23" s="7">
-        <v>672546</v>
+        <v>728819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="M23" s="7">
         <v>1310</v>
       </c>
       <c r="N23" s="7">
-        <v>1244746</v>
+        <v>1299354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>578</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,7 +8044,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7990,7 +8059,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8005,7 +8074,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8028,46 +8097,46 @@
         <v>89</v>
       </c>
       <c r="D25" s="7">
-        <v>76757</v>
+        <v>65541</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>294</v>
+        <v>580</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>241</v>
       </c>
       <c r="I25" s="7">
-        <v>177932</v>
+        <v>148102</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>330</v>
       </c>
       <c r="N25" s="7">
-        <v>254689</v>
+        <v>213643</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,46 +8148,46 @@
         <v>673</v>
       </c>
       <c r="D26" s="7">
-        <v>782671</v>
+        <v>863179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>589</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="H26" s="7">
         <v>821</v>
       </c>
       <c r="I26" s="7">
-        <v>690502</v>
+        <v>569629</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="M26" s="7">
         <v>1494</v>
       </c>
       <c r="N26" s="7">
-        <v>1473173</v>
+        <v>1432809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,7 +8199,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8145,7 +8214,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8160,7 +8229,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8183,46 +8252,46 @@
         <v>358</v>
       </c>
       <c r="D28" s="7">
-        <v>300411</v>
+        <v>282602</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>73</v>
+        <v>598</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="H28" s="7">
         <v>1076</v>
       </c>
       <c r="I28" s="7">
-        <v>666414</v>
+        <v>602042</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="M28" s="7">
         <v>1434</v>
       </c>
       <c r="N28" s="7">
-        <v>966825</v>
+        <v>884644</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>496</v>
+        <v>604</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,46 +8303,46 @@
         <v>3018</v>
       </c>
       <c r="D29" s="7">
-        <v>3084817</v>
+        <v>3177215</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>607</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="H29" s="7">
         <v>4291</v>
       </c>
       <c r="I29" s="7">
-        <v>3169167</v>
+        <v>3110238</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="M29" s="7">
         <v>7309</v>
       </c>
       <c r="N29" s="7">
-        <v>6253984</v>
+        <v>6287453</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>502</v>
+        <v>613</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,7 +8354,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8300,7 +8369,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8315,7 +8384,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
